--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2034452.236454532</v>
+        <v>-2037088.606108007</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>62.74133525018527</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>33.97375277785207</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.916548454187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>124.0961330064688</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>67.22331801800635</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>238.8378893321133</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>283.9746808062648</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>57.68096378755365</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>126.0955237083907</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>32.49442595689477</v>
       </c>
       <c r="W8" t="n">
-        <v>89.84455270551041</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1297,7 +1297,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>144.2875934942265</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>32.8106026132346</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470136</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>116.2873251119337</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.48499328953009</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>212.5323793059121</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>244.6418937426531</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>130.1208074460232</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
         <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545298</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261728</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652609</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,7 +3187,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
         <v>124.3308255261727</v>
@@ -3196,16 +3196,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4150,7 +4150,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
         <v>56.98118882652581</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180.995521843413</v>
+        <v>1201.628001464564</v>
       </c>
       <c r="C2" t="n">
-        <v>117.6204357321147</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="D2" t="n">
-        <v>117.6204357321147</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="E2" t="n">
-        <v>117.6204357321147</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="F2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872908</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4364,16 +4364,16 @@
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1940.996496798799</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1588.227841528685</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>1588.227841528685</v>
       </c>
       <c r="Y2" t="n">
-        <v>567.5953619075348</v>
+        <v>1588.227841528685</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>790.7764984014359</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1154.038517360656</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
         <v>2175.502629736639</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1269.331624317611</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1269.331624317611</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1269.331624317611</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1269.331624317611</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X4" t="n">
-        <v>1269.331624317611</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694473</v>
+        <v>1771.418012197379</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.606831754061</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>764.341133147311</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>764.341133147311</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F5" t="n">
-        <v>353.3552283577034</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734407</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758595</v>
+        <v>2158.017852261501</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064583</v>
@@ -4647,13 +4647,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,16 +4668,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4689,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.4482993600903</v>
+        <v>370.0144869816389</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>370.0144869816389</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>370.0144869816389</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>222.1013933992458</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4765,10 +4765,10 @@
         <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.4482993600903</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1934.208022973022</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649823</v>
+        <v>2722.984276312612</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.813113209913</v>
+        <v>2722.984276312612</v>
       </c>
       <c r="X8" t="n">
-        <v>2324.347354948834</v>
+        <v>2349.518518051532</v>
       </c>
       <c r="Y8" t="n">
-        <v>1934.208022973022</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.5649387724261</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1781.549504154931</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1559.782888724457</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1270.6800218501</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1015.995533644213</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1015.995533644213</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>788.005982746196</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.2134036026658</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2149.810879820878</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>984.9192356072671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>815.9830526793602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>665.8664132670244</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>517.9533196846313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782912</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038298</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797699</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832658</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487563</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510504</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854702</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648815</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648815</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750797</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072671</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,28 +5288,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811333</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1762.781909494436</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1508.097421288549</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1218.680251251588</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,13 +5826,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>555.8158034133954</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1730.34805652803</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1475.663568322143</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1186.246398285183</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>958.2568473871653</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>737.4642682436352</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5969,25 +5969,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,19 +6124,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>366.9636532421608</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6446,52 +6446,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6598,25 +6598,25 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,13 +6719,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311322</v>
@@ -7111,13 +7111,13 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547835</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345474</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7366,16 +7366,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7567,16 +7567,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954153</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7819,10 +7819,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7843,10 +7843,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>73.6605958099982</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>114.3555089013343</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>302.5315565208223</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,13 +22556,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>293.7785056922828</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>346.9165484541907</v>
       </c>
     </row>
     <row r="3">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>112.6104454096966</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185642</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>135.8503182118943</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>146.3469868924072</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>73.65209508333209</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>41.54258064659103</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64921.82232287324</v>
+        <v>64921.82232287325</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="D2" t="n">
         <v>82104.1769864283</v>
       </c>
       <c r="E2" t="n">
+        <v>80714.65996900064</v>
+      </c>
+      <c r="F2" t="n">
         <v>80714.65996900063</v>
       </c>
-      <c r="F2" t="n">
-        <v>80714.65996900064</v>
-      </c>
       <c r="G2" t="n">
-        <v>80714.65996900057</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="I2" t="n">
         <v>80714.65996900057</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="L2" t="n">
         <v>82104.17698642839</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642843</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>187032.8958036143</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605442</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363173</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39859.18718029552</v>
+        <v>39859.18718029534</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312012</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
+        <v>9947.144321768899</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9947.14432176885</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9947.144321768868</v>
+      </c>
+      <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="F4" t="n">
-        <v>9947.144321768897</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9947.144321768919</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9947.144321768908</v>
-      </c>
       <c r="I4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.144321768918</v>
       </c>
       <c r="J4" t="n">
         <v>17938.00358486236</v>
       </c>
       <c r="K4" t="n">
+        <v>17938.00358486242</v>
+      </c>
+      <c r="L4" t="n">
+        <v>17938.00358486238</v>
+      </c>
+      <c r="M4" t="n">
         <v>17938.00358486236</v>
       </c>
-      <c r="L4" t="n">
-        <v>17938.00358486236</v>
-      </c>
-      <c r="M4" t="n">
-        <v>17938.00358486237</v>
-      </c>
       <c r="N4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486239</v>
       </c>
       <c r="O4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486238</v>
       </c>
       <c r="P4" t="n">
         <v>17938.00358486237</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1182626.920873187</v>
+        <v>-1183056.479739775</v>
       </c>
       <c r="C6" t="n">
-        <v>-318402.6842801912</v>
+        <v>-318402.684280191</v>
       </c>
       <c r="D6" t="n">
-        <v>-114963.9426680851</v>
+        <v>-114963.9426680852</v>
       </c>
       <c r="E6" t="n">
-        <v>-355767.4759840304</v>
+        <v>-355802.2139094668</v>
       </c>
       <c r="F6" t="n">
-        <v>-30355.01417667537</v>
+        <v>-30389.75210211104</v>
       </c>
       <c r="G6" t="n">
-        <v>-30355.01417667547</v>
+        <v>-30389.75210211106</v>
       </c>
       <c r="H6" t="n">
-        <v>-30355.01417667544</v>
+        <v>-30389.7521021111</v>
       </c>
       <c r="I6" t="n">
-        <v>-30355.01417667547</v>
+        <v>-30389.75210211116</v>
       </c>
       <c r="J6" t="n">
         <v>-226030.8382559637</v>
@@ -26549,19 +26549,19 @@
         <v>-88108.03515840386</v>
       </c>
       <c r="L6" t="n">
-        <v>-38997.94245234937</v>
+        <v>-38997.94245234938</v>
       </c>
       <c r="M6" t="n">
-        <v>-124052.9703878611</v>
+        <v>-124052.9703878613</v>
       </c>
       <c r="N6" t="n">
-        <v>-38997.94245234934</v>
+        <v>-38997.94245234953</v>
       </c>
       <c r="O6" t="n">
-        <v>-58425.66044598114</v>
+        <v>-58425.66044598116</v>
       </c>
       <c r="P6" t="n">
-        <v>-38997.94245234938</v>
+        <v>-38997.94245234939</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.32139020186656</v>
+        <v>39.32139020186293</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.73584717546848</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>153.5253779792056</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>126.4350024388942</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>126.9470448471886</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>87.74008423537759</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>92.48912964370405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>295.2578325132401</v>
       </c>
       <c r="W8" t="n">
-        <v>259.3964160119026</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28059,19 +28059,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>45.48143183721541</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28266,10 +28266,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="29">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>549.9198891312094</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639744</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,16 +32552,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32962,7 +32962,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669223</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33196,7 +33196,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,16 +33269,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33497,22 +33497,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33670,7 +33670,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34141,10 +34141,10 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>371.3409564478483</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>449.7801908974574</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>407.323644686765</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326294884</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,13 +36203,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K28" t="n">
         <v>288.6172359016746</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,16 +36917,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016746</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37789,10 +37789,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
